--- a/data/Classes.xlsx
+++ b/data/Classes.xlsx
@@ -410,7 +410,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,97 +418,97 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>17</v>
       </c>

--- a/data/Classes.xlsx
+++ b/data/Classes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>錬金術師</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>盗賊</t>
+  </si>
+  <si>
+    <t>サキュバス</t>
   </si>
   <si>
     <t>ミニマム</t>
@@ -410,7 +413,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,102 +421,113 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
